--- a/others-box/蓝桥杯集训/考勤表/第二周考勤表.xlsx
+++ b/others-box/蓝桥杯集训/考勤表/第二周考勤表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22767\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8525C01-C13F-4189-8653-970A61261152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855B389-B3A9-4937-9B03-9AAC47E21EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F6CE767A-8481-4763-A2FE-EAFB35876771}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>软件181张心雨</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>软件204张达志</t>
-  </si>
-  <si>
-    <t>软件204李哲</t>
   </si>
   <si>
     <t>软件204李洪瑞</t>
@@ -510,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704312A0-5A5A-4F8F-8273-AF18AE3F5BC8}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,28 +526,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,11 +688,6 @@
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/others-box/蓝桥杯集训/考勤表/第二周考勤表.xlsx
+++ b/others-box/蓝桥杯集训/考勤表/第二周考勤表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22767\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855B389-B3A9-4937-9B03-9AAC47E21EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC39A7F-D08E-4CF6-8BA3-9055F7151B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F6CE767A-8481-4763-A2FE-EAFB35876771}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>软件181张心雨</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试名次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +136,18 @@
   </si>
   <si>
     <t>是否参与讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周无讲解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +171,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,17 +212,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,188 +569,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704312A0-5A5A-4F8F-8273-AF18AE3F5BC8}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
